--- a/LAPEntries/LAP-ColonyCounterSelection-OT2-2.0.0/VariablesCounterSelection.xlsx
+++ b/LAPEntries/LAP-ColonyCounterSelection-OT2-2.0.0/VariablesCounterSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\LAPrepository\archivos_en_produccion\Colony_Counter_Selection_LAP_files_v200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95385D4A-31EF-4AB7-A076-AA89569AF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87566D-BD67-4D56-9326-48146AE637B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -504,10 +504,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
@@ -569,10 +569,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
@@ -636,10 +636,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
